--- a/script/ExcelToJson.xlsx
+++ b/script/ExcelToJson.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\YandexDisk\Development\HTML_CSS\_МояШладость\Ноый сайт\HTML CSS JS\MS\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1E655-1BEC-4E74-A118-3F5E6BF012A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC8975F-E1BB-438E-B75B-F962A368AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="30" windowWidth="14160" windowHeight="15570" xr2:uid="{21FEC5EE-DCE2-41F8-9D36-3A402A7EA626}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Масло сливочное</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>Выберите продукт</t>
+  </si>
+  <si>
+    <t>pack1</t>
+  </si>
+  <si>
+    <t>pack2</t>
+  </si>
+  <si>
+    <t>Изобр. на В/Б</t>
+  </si>
+  <si>
+    <t>Упаковка 30х30х30</t>
+  </si>
+  <si>
+    <t>Подложка 30</t>
+  </si>
+  <si>
+    <t>dec1</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
 </sst>
 </file>
@@ -561,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8D9DA7-F51F-4141-9E0D-D2DD8F5D0F4F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +609,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -793,6 +814,69 @@
       <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5">
+        <f>E12/D12</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>20</v>
+      </c>
+      <c r="F13" s="5">
+        <f>E13/D13</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5">
+        <f>E14/D14</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/script/ExcelToJson.xlsx
+++ b/script/ExcelToJson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\YandexDisk\Development\HTML_CSS\_МояШладость\Ноый сайт\HTML CSS JS\MS\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC8975F-E1BB-438E-B75B-F962A368AF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDF3BAD-18B6-42BE-981D-828731F7E76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="30" windowWidth="14160" windowHeight="15570" xr2:uid="{21FEC5EE-DCE2-41F8-9D36-3A402A7EA626}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Масло сливочное</t>
   </si>
@@ -120,9 +120,6 @@
     <t>pack2</t>
   </si>
   <si>
-    <t>Изобр. на В/Б</t>
-  </si>
-  <si>
     <t>Упаковка 30х30х30</t>
   </si>
   <si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>Изобр. на ваф. Бумаге</t>
+  </si>
+  <si>
+    <t>лист</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>16</v>
@@ -821,7 +824,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>12</v>
@@ -842,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
@@ -858,15 +861,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
